--- a/Artefakte/WS2122_ChouliarasBurgdorfWolf_PoC_Kriterien.xlsx
+++ b/Artefakte/WS2122_ChouliarasBurgdorfWolf_PoC_Kriterien.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Entwicklungsprojekt\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0F607B-7465-4A08-83ED-4CE51051AC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D4D329-BA09-43B6-9422-A7123D034AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Kriterien PoC" sheetId="2" r:id="rId2"/>
+    <sheet name="Installationsbeschreibung" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="61">
   <si>
     <t>Success</t>
   </si>
@@ -70,13 +72,151 @@
   </si>
   <si>
     <t>App Prototyp für iOS &amp; Android</t>
+  </si>
+  <si>
+    <t>Anwendung im Web ausführbar (Chrome)</t>
+  </si>
+  <si>
+    <t>schnelles Aufsetzen ist KEIN Kriterium mehr,</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Schrittweises Vorgehen</t>
+  </si>
+  <si>
+    <t>Was</t>
+  </si>
+  <si>
+    <t>Flutter</t>
+  </si>
+  <si>
+    <t>ThreeJS</t>
+  </si>
+  <si>
+    <t>Kriterium</t>
+  </si>
+  <si>
+    <t>Ein 3D Objekt lässt sich einfügen</t>
+  </si>
+  <si>
+    <t>Einrichten der Entwicklungsumgebung</t>
+  </si>
+  <si>
+    <t>Exit-Kriterium</t>
+  </si>
+  <si>
+    <t>Einrichtung kann nicht bei allen Teammitgliedern bis zum 22.11.23 abgeschlossen werden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Einrichtung verläuft bei allen Teammitgliedern unproblematisch </t>
+  </si>
+  <si>
+    <t>Fallback-Kriterium</t>
+  </si>
+  <si>
+    <t>Fail-Kriterium</t>
+  </si>
+  <si>
+    <t>Anwendung kann nicht in einem Browser ausgeführt werden</t>
+  </si>
+  <si>
+    <t>Anwendung kann  in einem Browser ausgeführt werden</t>
+  </si>
+  <si>
+    <t>Es lässt sich kein 3D Objekt rendern</t>
+  </si>
+  <si>
+    <t>Es lässt sich ein 3D Objekt rendern</t>
+  </si>
+  <si>
+    <t>Die Kamera kann kontrolliert/ bewegt werden</t>
+  </si>
+  <si>
+    <t>Die Kamera kann nicht auf allen getesteten Devices  kontrolliert/ bewegt werden</t>
+  </si>
+  <si>
+    <t>Die Kamera kann auf allen getesteten Devices kontrolliert/ bewegt werden</t>
+  </si>
+  <si>
+    <t>Flutter Proof of Concept</t>
+  </si>
+  <si>
+    <t>Die Kamera kann nicht gezielt kontrolliert/ bewegt werden</t>
+  </si>
+  <si>
+    <t>Die Anwendung ist auf einem IOS Device ausführbar</t>
+  </si>
+  <si>
+    <t>Die Anwendung ist nicht auf einem IOS Device ausführbar</t>
+  </si>
+  <si>
+    <t>Die Anwendung ist auf einem Android Device ausführbar</t>
+  </si>
+  <si>
+    <t>Die Anwendung ist nicht auf einem Andrid Device ausführbar</t>
+  </si>
+  <si>
+    <t>Die Exit-Kriterien müssen bis zum 2.Audit bei allen Teammitgliedern eintreten um als erfüllt zu gelten</t>
+  </si>
+  <si>
+    <t>Eine Kamera lässt sich auf allen getesteten Devices bewegen</t>
+  </si>
+  <si>
+    <t>Eine Kamera lässt sich bewegen</t>
+  </si>
+  <si>
+    <t>Das Arbeiten mit Flutter hatte ein angemessenes Tempo</t>
+  </si>
+  <si>
+    <t>Die Arbeit mit Flutter hat zu starken zeitlichen Einbußen geführt</t>
+  </si>
+  <si>
+    <t>Auswertung</t>
+  </si>
+  <si>
+    <t>Bei der Arbeit mit Flutter konnte der PoC mit angemessenem Aufwand durchgeführt werden.</t>
+  </si>
+  <si>
+    <t>Ausweichen auf den zweiten Proof of Concept mit Three.JS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Unterstützung des Devices ist vorerst nicht mehr im Projektumfang </t>
+  </si>
+  <si>
+    <t>Three.JS Proof of Concept</t>
+  </si>
+  <si>
+    <t>Ausweichen auf den dritten Proof of Concept mit Unity</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Unity Proof of Concept</t>
+  </si>
+  <si>
+    <t>Das Arbeiten mit Unity hatte ein angemessenes Tempo</t>
+  </si>
+  <si>
+    <t>Projektansatz gescheitert</t>
+  </si>
+  <si>
+    <t>Das Arbeiten mit Three.JS hatte ein angemessenes Tempo</t>
+  </si>
+  <si>
+    <t>Die Arbeit mit Three.JS hat zu starken zeitlichen Einbußen geführt</t>
+  </si>
+  <si>
+    <t>Bei der Arbeit mit Three.JS konnte der PoC mit angemessenem Aufwand durchgeführt werden.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +240,20 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -128,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -136,11 +290,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -156,6 +325,22 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:C18"/>
+  <dimension ref="B3:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +634,7 @@
     <col min="3" max="3" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -465,7 +650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
@@ -473,25 +658,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,15 +684,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
@@ -515,7 +703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -523,13 +711,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,4 +742,438 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA11787-3E16-4845-B675-31D754FB2842}">
+  <dimension ref="B1:AA16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" customWidth="1"/>
+    <col min="18" max="18" width="24.28515625" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" customWidth="1"/>
+    <col min="20" max="20" width="21.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:27" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="E1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="I1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="10"/>
+      <c r="K1" s="6"/>
+      <c r="P1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="AA2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" ht="75" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="I4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="P4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="2:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="I5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="P5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="T5" s="9"/>
+    </row>
+    <row r="6" spans="2:27" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="I6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="P6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6" s="9"/>
+    </row>
+    <row r="7" spans="2:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="I7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="P7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="T7" s="9"/>
+    </row>
+    <row r="8" spans="2:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="I8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="P8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="T8" s="9"/>
+    </row>
+    <row r="9" spans="2:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+    </row>
+    <row r="10" spans="2:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="2:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A38124-0217-4829-9A06-DB0D97D65209}">
+  <dimension ref="B1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Artefakte/WS2122_ChouliarasBurgdorfWolf_PoC_Kriterien.xlsx
+++ b/Artefakte/WS2122_ChouliarasBurgdorfWolf_PoC_Kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Entwicklungsprojekt\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D4D329-BA09-43B6-9422-A7123D034AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854FF4A4-5CDB-4858-A5DC-9AD82B6A50C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
   <si>
     <t>Success</t>
   </si>
@@ -210,6 +210,30 @@
   </si>
   <si>
     <t>Bei der Arbeit mit Three.JS konnte der PoC mit angemessenem Aufwand durchgeführt werden.</t>
+  </si>
+  <si>
+    <t>Einrichtung der Entwicklungsumgebung hat bei allen Teammitgliedern geklappt. War allerdings trotz vorhandener Dokumentation mit hohem Aufwand verbunden.</t>
+  </si>
+  <si>
+    <t>Einrichten eines ersten Projekts hat in einigen Stunden geklappt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Import der benötigten Packages war erst nach vielen Versuchen erfolgreich. Die Packages sind zusätzlich alle noch in einer frühen Entwicklungsphase. </t>
+  </si>
+  <si>
+    <t>Nach import des 3D Objekts ist eine Kamera vorhanden, bzw. lässt sich bewegen. Die genaue Funktionalität ist allerdings trotzdem nicht bekannt, da selbst keine  implementiert wurde.</t>
+  </si>
+  <si>
+    <t>Das Testen von IOS Devices ist nur auf MAC-OS Geräten möglich.</t>
+  </si>
+  <si>
+    <t>Das Implementieren des zu rendern 3D Objekts war mit hohem Zeitlichen Aufwand verbunden. Zudem gab es nur wenig Dokumentation und Erklärungsmaterial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eine Bewegung ist möglich, allerdings ist die Funktionsweise nicht klar, da selbst keine Kamera implementiert wurde. </t>
+  </si>
+  <si>
+    <t>Der Android Studio Emulator konnte die App ausführen, allerdings nicht bei allen Teammitgliedern.</t>
   </si>
 </sst>
 </file>
@@ -256,7 +280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,6 +302,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEAEFF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -341,6 +383,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,7 +803,7 @@
   <dimension ref="B1:AA16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +812,7 @@
     <col min="3" max="3" width="27.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" style="6" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" customWidth="1"/>
     <col min="8" max="8" width="6.7109375" customWidth="1"/>
     <col min="9" max="9" width="22.5703125" customWidth="1"/>
@@ -853,20 +907,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:27" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:27" ht="105" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="I4" s="8" t="s">
         <v>24</v>
       </c>
@@ -901,13 +957,15 @@
       <c r="C5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="I5" s="8" t="s">
         <v>15</v>
       </c>
@@ -935,20 +993,22 @@
       </c>
       <c r="T5" s="9"/>
     </row>
-    <row r="6" spans="2:27" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" ht="90" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="I6" s="8" t="s">
         <v>23</v>
       </c>
@@ -976,11 +1036,11 @@
       </c>
       <c r="T6" s="9"/>
     </row>
-    <row r="7" spans="2:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27" ht="105" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -989,7 +1049,9 @@
       <c r="E7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="I7" s="8" t="s">
         <v>45</v>
       </c>
@@ -1017,11 +1079,11 @@
       </c>
       <c r="T7" s="9"/>
     </row>
-    <row r="8" spans="2:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:27" ht="90" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -1030,7 +1092,9 @@
       <c r="E8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="I8" s="8" t="s">
         <v>58</v>
       </c>
@@ -1062,7 +1126,7 @@
       <c r="B9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -1071,7 +1135,9 @@
       <c r="E9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -1088,23 +1154,25 @@
       <c r="C10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="2:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" ht="75" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -1113,7 +1181,9 @@
       <c r="E11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>

--- a/Artefakte/WS2122_ChouliarasBurgdorfWolf_PoC_Kriterien.xlsx
+++ b/Artefakte/WS2122_ChouliarasBurgdorfWolf_PoC_Kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Entwicklungsprojekt\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854FF4A4-5CDB-4858-A5DC-9AD82B6A50C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC44D48-2F47-4F5C-8A89-9131C17019A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="74">
   <si>
     <t>Success</t>
   </si>
@@ -234,6 +234,21 @@
   </si>
   <si>
     <t>Der Android Studio Emulator konnte die App ausführen, allerdings nicht bei allen Teammitgliedern.</t>
+  </si>
+  <si>
+    <t>Die Einrichtung war bei allen schnell und Problemlos. Für das Ausführen wurde zusätzlich zu Visual Studio Code das Plugin "Live Server" genutzt</t>
+  </si>
+  <si>
+    <t>Hat mit dem Plugin problemlos geklappt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> THREE.js stellt einen Obj loader zur Verfügung.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> THREE.js stellt OrbitControls zur  Verfügung.</t>
+  </si>
+  <si>
+    <t>Der zeitliche Aufwand war angemessen (einige Stunden).</t>
   </si>
 </sst>
 </file>
@@ -280,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +338,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -351,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -377,25 +398,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -802,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA11787-3E16-4845-B675-31D754FB2842}">
   <dimension ref="B1:AA16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,23 +854,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="13"/>
+      <c r="E1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="I1" s="10" t="s">
+      <c r="F1" s="14"/>
+      <c r="I1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="6"/>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="10"/>
+      <c r="Q1" s="13"/>
       <c r="R1" s="6"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
@@ -891,36 +915,36 @@
       <c r="M3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:27" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:27" ht="120" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="12" t="s">
         <v>61</v>
       </c>
       <c r="I4" s="8" t="s">
@@ -929,26 +953,28 @@
       <c r="J4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="11" t="s">
         <v>27</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="P4" s="8" t="s">
+      <c r="M4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="T4" s="9"/>
+      <c r="T4" s="16"/>
     </row>
     <row r="5" spans="2:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -957,13 +983,13 @@
       <c r="C5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="12" t="s">
         <v>62</v>
       </c>
       <c r="I5" s="8" t="s">
@@ -972,26 +998,28 @@
       <c r="J5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="11" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="P5" s="8" t="s">
+      <c r="M5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="S5" s="8" t="s">
+      <c r="S5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="T5" s="9"/>
+      <c r="T5" s="16"/>
     </row>
     <row r="6" spans="2:27" ht="90" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -1000,13 +1028,13 @@
       <c r="C6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
         <v>63</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -1015,32 +1043,34 @@
       <c r="J6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="11" t="s">
         <v>33</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="P6" s="8" t="s">
+      <c r="M6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="T6" s="9"/>
+      <c r="T6" s="16"/>
     </row>
     <row r="7" spans="2:27" ht="105" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -1049,7 +1079,7 @@
       <c r="E7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="12" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="8" t="s">
@@ -1058,32 +1088,34 @@
       <c r="J7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="11" t="s">
         <v>34</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="P7" s="8" t="s">
+      <c r="M7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="Q7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="R7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="S7" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="T7" s="9"/>
+      <c r="T7" s="16"/>
     </row>
     <row r="8" spans="2:27" ht="90" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -1092,7 +1124,7 @@
       <c r="E8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="12" t="s">
         <v>66</v>
       </c>
       <c r="I8" s="8" t="s">
@@ -1101,32 +1133,34 @@
       <c r="J8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="11" t="s">
         <v>60</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="P8" s="8" t="s">
+      <c r="M8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="Q8" s="8" t="s">
+      <c r="Q8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="S8" s="8" t="s">
+      <c r="S8" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="T8" s="9"/>
+      <c r="T8" s="16"/>
     </row>
     <row r="9" spans="2:27" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -1135,7 +1169,7 @@
       <c r="E9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="12" t="s">
         <v>65</v>
       </c>
       <c r="I9" s="7"/>
@@ -1154,13 +1188,13 @@
       <c r="C10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="10" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="I10" s="7"/>
@@ -1172,7 +1206,7 @@
       <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -1181,7 +1215,7 @@
       <c r="E11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="12" t="s">
         <v>67</v>
       </c>
       <c r="I11" s="7"/>

--- a/Artefakte/WS2122_ChouliarasBurgdorfWolf_PoC_Kriterien.xlsx
+++ b/Artefakte/WS2122_ChouliarasBurgdorfWolf_PoC_Kriterien.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Entwicklungsprojekt\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\burg.jens\Desktop\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC44D48-2F47-4F5C-8A89-9131C17019A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CE8B7F-1097-40B7-BEB3-894B8A82EDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="73">
   <si>
     <t>Success</t>
   </si>
@@ -209,46 +209,43 @@
     <t>Die Arbeit mit Three.JS hat zu starken zeitlichen Einbußen geführt</t>
   </si>
   <si>
-    <t>Bei der Arbeit mit Three.JS konnte der PoC mit angemessenem Aufwand durchgeführt werden.</t>
-  </si>
-  <si>
-    <t>Einrichtung der Entwicklungsumgebung hat bei allen Teammitgliedern geklappt. War allerdings trotz vorhandener Dokumentation mit hohem Aufwand verbunden.</t>
-  </si>
-  <si>
-    <t>Einrichten eines ersten Projekts hat in einigen Stunden geklappt.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Der Import der benötigten Packages war erst nach vielen Versuchen erfolgreich. Die Packages sind zusätzlich alle noch in einer frühen Entwicklungsphase. </t>
   </si>
   <si>
-    <t>Nach import des 3D Objekts ist eine Kamera vorhanden, bzw. lässt sich bewegen. Die genaue Funktionalität ist allerdings trotzdem nicht bekannt, da selbst keine  implementiert wurde.</t>
-  </si>
-  <si>
-    <t>Das Testen von IOS Devices ist nur auf MAC-OS Geräten möglich.</t>
-  </si>
-  <si>
-    <t>Das Implementieren des zu rendern 3D Objekts war mit hohem Zeitlichen Aufwand verbunden. Zudem gab es nur wenig Dokumentation und Erklärungsmaterial.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eine Bewegung ist möglich, allerdings ist die Funktionsweise nicht klar, da selbst keine Kamera implementiert wurde. </t>
-  </si>
-  <si>
     <t>Der Android Studio Emulator konnte die App ausführen, allerdings nicht bei allen Teammitgliedern.</t>
   </si>
   <si>
-    <t>Die Einrichtung war bei allen schnell und Problemlos. Für das Ausführen wurde zusätzlich zu Visual Studio Code das Plugin "Live Server" genutzt</t>
-  </si>
-  <si>
     <t>Hat mit dem Plugin problemlos geklappt.</t>
   </si>
   <si>
-    <t xml:space="preserve"> THREE.js stellt einen Obj loader zur Verfügung.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> THREE.js stellt OrbitControls zur  Verfügung.</t>
-  </si>
-  <si>
-    <t>Der zeitliche Aufwand war angemessen (einige Stunden).</t>
+    <t>Nach der Einrichtung ließ sich das Basic-Project direkt problemlos kompilieren.</t>
+  </si>
+  <si>
+    <t>Die Entwicklungsumgebung konnte eingerichtet werden. Es traten jedoch bei unterschiedlichen Teammitgliedern unterschiedliche Probleme auf.</t>
+  </si>
+  <si>
+    <t>Das Testen für Apple-Geräte ist nur auf Mac-OS Geräten möglich.</t>
+  </si>
+  <si>
+    <t>Das Implementieren der 3D-Funktionalität war mit einem hohen zeitaufwand verbunden. Zudem gab es nur wenig Dokumentation und Erklärungsmaterial.</t>
+  </si>
+  <si>
+    <t>Nach Import des 3D Objekts ist eine Kamera vorhanden, bzw. lässt sich bewegen, jedoch ohne eigene Implementierung. Nicht direkt nachvollziehbar.</t>
+  </si>
+  <si>
+    <t>Die Einrichtung war bei Allen schnell und Problemlos. Für das Ausführen wurde zusätzlich in Visual Studio Code das Plugin "Live Server" genutzt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> THREE.js stellt den Obj loader zur Verfügung. Die genaue Funktionalität ist einsehbar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> THREE.js stellt OrbitControls zur  Verfügung. Die genaue Funktionalität ist einsehbar.</t>
+  </si>
+  <si>
+    <t>Der zeitliche Aufwand war angemessen (wenige Stunden).</t>
+  </si>
+  <si>
+    <t>Bei der Arbeit mit Three.JS konnten PoC's mit angemessenem Aufwand durchgeführt werden.</t>
   </si>
 </sst>
 </file>
@@ -410,16 +407,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -826,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA11787-3E16-4845-B675-31D754FB2842}">
   <dimension ref="B1:AA16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,23 +851,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="15"/>
+      <c r="E1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="I1" s="13" t="s">
+      <c r="F1" s="16"/>
+      <c r="I1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="6"/>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="13"/>
+      <c r="Q1" s="15"/>
       <c r="R1" s="6"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
@@ -915,19 +912,19 @@
       <c r="M3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="13" t="s">
         <v>48</v>
       </c>
     </row>
@@ -945,7 +942,7 @@
         <v>50</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>24</v>
@@ -960,21 +957,21 @@
         <v>53</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="P4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="R4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="S4" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T4" s="16"/>
+      <c r="T4" s="14"/>
     </row>
     <row r="5" spans="2:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -990,7 +987,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>15</v>
@@ -1005,21 +1002,21 @@
         <v>53</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="R5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="S5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T5" s="16"/>
+      <c r="T5" s="14"/>
     </row>
     <row r="6" spans="2:27" ht="90" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -1035,7 +1032,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>23</v>
@@ -1050,23 +1047,23 @@
         <v>53</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="P6" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="R6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="15" t="s">
+      <c r="S6" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T6" s="16"/>
-    </row>
-    <row r="7" spans="2:27" ht="105" x14ac:dyDescent="0.25">
+      <c r="T6" s="14"/>
+    </row>
+    <row r="7" spans="2:27" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>45</v>
       </c>
@@ -1080,7 +1077,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>45</v>
@@ -1095,21 +1092,21 @@
         <v>53</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="P7" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="R7" s="15" t="s">
+      <c r="R7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="S7" s="15" t="s">
+      <c r="S7" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T7" s="16"/>
+      <c r="T7" s="14"/>
     </row>
     <row r="8" spans="2:27" ht="90" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
@@ -1134,27 +1131,27 @@
         <v>59</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>53</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="P8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="Q8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="R8" s="15" t="s">
+      <c r="R8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="S8" s="15" t="s">
+      <c r="S8" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T8" s="16"/>
+      <c r="T8" s="14"/>
     </row>
     <row r="9" spans="2:27" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
@@ -1195,14 +1192,14 @@
         <v>51</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="2:27" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" ht="90" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>44</v>
       </c>

--- a/Artefakte/WS2122_ChouliarasBurgdorfWolf_PoC_Kriterien.xlsx
+++ b/Artefakte/WS2122_ChouliarasBurgdorfWolf_PoC_Kriterien.xlsx
@@ -5,29 +5,62 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\burg.jens\Desktop\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Entwicklungsprojekt\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CE8B7F-1097-40B7-BEB3-894B8A82EDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54646E07-3387-4A09-BEBA-023C323286BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Kriterien PoC" sheetId="2" r:id="rId2"/>
     <sheet name="Installationsbeschreibung" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="71">
   <si>
     <t>Success</t>
   </si>
@@ -80,15 +113,6 @@
     <t>schnelles Aufsetzen ist KEIN Kriterium mehr,</t>
   </si>
   <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Schrittweises Vorgehen</t>
-  </si>
-  <si>
-    <t>Was</t>
-  </si>
-  <si>
     <t>Flutter</t>
   </si>
   <si>
@@ -246,13 +270,16 @@
   </si>
   <si>
     <t>Bei der Arbeit mit Three.JS konnten PoC's mit angemessenem Aufwand durchgeführt werden.</t>
+  </si>
+  <si>
+    <t>Unity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +313,29 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -369,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -392,31 +442,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -823,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA11787-3E16-4845-B675-31D754FB2842}">
   <dimension ref="B1:AA16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q4:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,41 +896,41 @@
     <col min="3" max="3" width="27.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" style="6" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" customWidth="1"/>
     <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
     <col min="10" max="10" width="26.28515625" customWidth="1"/>
     <col min="11" max="11" width="25.140625" customWidth="1"/>
     <col min="12" max="12" width="23.28515625" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="38" customWidth="1"/>
     <col min="14" max="14" width="4.85546875" customWidth="1"/>
     <col min="15" max="15" width="5.42578125" customWidth="1"/>
-    <col min="16" max="16" width="20.140625" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" customWidth="1"/>
+    <col min="17" max="17" width="27.85546875" customWidth="1"/>
     <col min="18" max="18" width="24.28515625" customWidth="1"/>
     <col min="19" max="19" width="22.85546875" customWidth="1"/>
-    <col min="20" max="20" width="21.85546875" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="E1" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="16"/>
-      <c r="I1" s="15" t="s">
+      <c r="B1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="E1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="I1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="6"/>
+      <c r="P1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="6"/>
-      <c r="P1" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="15"/>
+      <c r="Q1" s="8"/>
       <c r="R1" s="6"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
@@ -878,296 +941,298 @@
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="AA2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="22" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="2:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="T4" s="23"/>
+    </row>
+    <row r="5" spans="2:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="T5" s="23"/>
+    </row>
+    <row r="6" spans="2:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="D6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" s="23"/>
+    </row>
+    <row r="7" spans="2:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="T7" s="23"/>
+    </row>
+    <row r="8" spans="2:27" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="T8" s="23"/>
+    </row>
+    <row r="9" spans="2:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:27" ht="120" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T4" s="14"/>
-    </row>
-    <row r="5" spans="2:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="8" t="s">
+      <c r="F9" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T5" s="14"/>
-    </row>
-    <row r="6" spans="2:27" ht="90" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T6" s="14"/>
-    </row>
-    <row r="7" spans="2:27" ht="90" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="R7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T7" s="14"/>
-    </row>
-    <row r="8" spans="2:27" ht="90" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q8" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T8" s="14"/>
-    </row>
-    <row r="9" spans="2:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -1178,42 +1243,45 @@
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="2:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="7"/>
+    <row r="10" spans="2:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="7" cm="1">
+        <f t="array" aca="1" ref="I10" ca="1">I9:L10</f>
+        <v>0</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="2:27" ht="90" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>67</v>
+    <row r="11" spans="2:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -1238,43 +1306,119 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A38124-0217-4829-9A06-DB0D97D65209}">
-  <dimension ref="B1:O2"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B1" sqref="B1:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" t="s">
-        <v>18</v>
-      </c>
+      <c r="C4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Artefakte/WS2122_ChouliarasBurgdorfWolf_PoC_Kriterien.xlsx
+++ b/Artefakte/WS2122_ChouliarasBurgdorfWolf_PoC_Kriterien.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Entwicklungsprojekt\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54646E07-3387-4A09-BEBA-023C323286BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A54492-9739-4720-967E-7CCD5BC07D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Kriterien PoC" sheetId="2" r:id="rId2"/>
-    <sheet name="Installationsbeschreibung" sheetId="3" r:id="rId3"/>
+    <sheet name="andere PoCs" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="70">
   <si>
     <t>Success</t>
   </si>
@@ -113,12 +113,6 @@
     <t>schnelles Aufsetzen ist KEIN Kriterium mehr,</t>
   </si>
   <si>
-    <t>Flutter</t>
-  </si>
-  <si>
-    <t>ThreeJS</t>
-  </si>
-  <si>
     <t>Kriterium</t>
   </si>
   <si>
@@ -272,7 +266,10 @@
     <t>Bei der Arbeit mit Three.JS konnten PoC's mit angemessenem Aufwand durchgeführt werden.</t>
   </si>
   <si>
-    <t>Unity</t>
+    <t>Routen Algorithmus</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -419,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -442,44 +439,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -886,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA11787-3E16-4845-B675-31D754FB2842}">
   <dimension ref="B1:AA16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q4:R11"/>
+    <sheetView zoomScale="77" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,23 +908,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="E1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="I1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="8"/>
+      <c r="B1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="E1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="19"/>
+      <c r="I1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="18"/>
       <c r="K1" s="6"/>
-      <c r="P1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="8"/>
+      <c r="P1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="18"/>
       <c r="R1" s="6"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
@@ -941,298 +935,298 @@
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="AA2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" s="17"/>
+    </row>
+    <row r="5" spans="2:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="T5" s="17"/>
+    </row>
+    <row r="6" spans="2:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" s="17"/>
+    </row>
+    <row r="7" spans="2:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="T7" s="17"/>
+    </row>
+    <row r="8" spans="2:27" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="2:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:27" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="S4" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="23"/>
-    </row>
-    <row r="5" spans="2:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="17" t="s">
+      <c r="Q8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="T8" s="17"/>
+    </row>
+    <row r="9" spans="2:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="S5" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="T5" s="23"/>
-    </row>
-    <row r="6" spans="2:27" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="T6" s="23"/>
-    </row>
-    <row r="7" spans="2:27" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="R7" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="S7" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="T7" s="23"/>
-    </row>
-    <row r="8" spans="2:27" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q8" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="R8" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="S8" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="T8" s="23"/>
-    </row>
-    <row r="9" spans="2:27" ht="63" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>62</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -1244,20 +1238,20 @@
       <c r="S9" s="7"/>
     </row>
     <row r="10" spans="2:27" ht="63" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>58</v>
+      <c r="B10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="I10" s="7" cm="1">
         <f t="array" aca="1" ref="I10" ca="1">I9:L10</f>
@@ -1268,20 +1262,20 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="2:27" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>64</v>
+      <c r="B11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -1305,120 +1299,142 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A38124-0217-4829-9A06-DB0D97D65209}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5EE435-9524-4D5A-BEB4-5EBAA1BB63EA}">
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="3" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="8" max="8" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="6"/>
+      <c r="H1" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="18"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="K3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D14" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>